--- a/Resultados/Escenario 6/L.xlsx
+++ b/Resultados/Escenario 6/L.xlsx
@@ -5715,7 +5715,7 @@
         <v>1</v>
       </c>
       <c r="E278" t="n">
-        <v>0</v>
+        <v>4.156675004196586e-13</v>
       </c>
     </row>
     <row r="279">

--- a/Resultados/Escenario 6/L.xlsx
+++ b/Resultados/Escenario 6/L.xlsx
@@ -4632,7 +4632,7 @@
         <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
     </row>
     <row r="222">
@@ -5715,7 +5715,7 @@
         <v>1</v>
       </c>
       <c r="E278" t="n">
-        <v>4.156675004196586e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
